--- a/document/基本方案及设计.xlsx
+++ b/document/基本方案及设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20700" windowHeight="12600" firstSheet="2" activeTab="7"/>
+    <workbookView windowWidth="20700" windowHeight="13635" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="星火概述" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130">
   <si>
     <t>概述：</t>
   </si>
@@ -826,6 +826,51 @@
         <charset val="134"/>
       </rPr>
       <t>两种状态， 赞， 差 分别均可评论</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>常用地点</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">a. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>添加，删除常用地点, 如家及工作地点</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">b. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>常用地点附近新增摊位将主动通知</t>
     </r>
   </si>
   <si>
@@ -1954,10 +1999,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -2030,115 +2075,135 @@
     <row r="15" spans="3:3">
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="2:3">
-      <c r="B16" s="3" t="s">
+    <row r="16" spans="3:3">
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3" t="s">
-        <v>106</v>
-      </c>
+      <c r="C17" s="3"/>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="3" t="s">
+    <row r="21" spans="2:2">
+      <c r="B21" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="3:3">
-      <c r="C21" s="3" t="s">
+    <row r="22" spans="3:3">
+      <c r="C22" s="3" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B25" s="2" t="s">
+    <row r="25" spans="2:3">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="5"/>
-      <c r="B26" s="2" t="s">
+    <row r="26" spans="2:3">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D26" s="2" t="s">
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="5"/>
-      <c r="B27" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="5"/>
-      <c r="B28" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:2">
       <c r="A29" s="4" t="s">
         <v>80</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="5"/>
+      <c r="B30" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D29" s="2" t="s">
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="5"/>
+      <c r="B31" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="4"/>
-      <c r="B30" s="2"/>
-      <c r="D30" s="2"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="4"/>
-      <c r="B31" s="2" t="s">
+    <row r="32" spans="1:2">
+      <c r="A32" s="5"/>
+      <c r="B32" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D31" s="2"/>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="1" t="s">
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4">
+      <c r="D33" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="4"/>
+      <c r="B34" s="2"/>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="4"/>
       <c r="B35" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D35" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="36" spans="2:4">
-      <c r="B36" s="2" t="s">
+      <c r="D35" s="2"/>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D36" s="2" t="s">
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39" s="2" t="s">
         <v>123</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2153,8 +2218,8 @@
   <sheetPr/>
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -2166,13 +2231,13 @@
     </row>
     <row r="2" customFormat="1" spans="2:2">
       <c r="B2" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="2:3">
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="2:3">
@@ -2186,7 +2251,7 @@
     </row>
     <row r="7" customFormat="1" spans="3:3">
       <c r="C7" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="3:3">
@@ -2212,7 +2277,7 @@
     </row>
     <row r="13" customFormat="1" spans="2:2">
       <c r="B13" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:2">
@@ -2220,29 +2285,29 @@
         <v>80</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:4">
       <c r="A15" s="5"/>
       <c r="B15" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C15"/>
       <c r="D15" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="1:2">
       <c r="A16" s="5"/>
       <c r="B16" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="1:2">
       <c r="A17" s="5"/>
       <c r="B17" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="1:4">
@@ -2250,39 +2315,39 @@
         <v>80</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C18"/>
       <c r="D18" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="2:2">
       <c r="B20" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="2:2">
       <c r="B21" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="2:4">
       <c r="B22" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C22"/>
       <c r="D22" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" customFormat="1" spans="2:4">
       <c r="B23" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C23"/>
       <c r="D23" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/document/基本方案及设计.xlsx
+++ b/document/基本方案及设计.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyApp\Project\StarFire\document\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="20700" windowHeight="13635" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20700" windowHeight="13635" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="星火概述" sheetId="1" r:id="rId1"/>
@@ -17,12 +22,11 @@
     <sheet name="功能详细 - 商户模块" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <extLst/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="135">
   <si>
     <t>概述：</t>
   </si>
@@ -924,17 +928,26 @@
   <si>
     <t>同消费者</t>
   </si>
+  <si>
+    <t>d. 商户认证机制</t>
+  </si>
+  <si>
+    <t>商户模式摊位详细</t>
+  </si>
+  <si>
+    <t>g. 打卡功能</t>
+  </si>
+  <si>
+    <t>e. 打卡功能</t>
+  </si>
+  <si>
+    <t>f. 提供实时位置</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -974,7 +987,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -999,6 +1012,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FF33"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1009,27 +1028,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1052,20 +1056,746 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF66FF33"/>
+    </mruColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3074" name="Flowchart: Predefined Process 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2019300" y="1847850"/>
+          <a:ext cx="1609725" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="70AD47"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="517E33"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="36576" bIns="27432" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+            </a:rPr>
+            <a:t>安卓平台</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3075" name="Flowchart: Predefined Process 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1990725" y="609600"/>
+          <a:ext cx="1609725" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ED7D31"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="AD5B23"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="36576" bIns="27432" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+            </a:rPr>
+            <a:t>苹果平台</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3076" name="Flowchart: Predefined Process 4"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1990725" y="3143250"/>
+          <a:ext cx="1609725" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="5B9BD5"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="42719B"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="36576" rIns="36576" bIns="36576" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1800"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Winphone</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:t>平台</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:latin typeface="宋体"/>
+            <a:ea typeface="宋体"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3077" name="Flowchart: Magnetic Disk 5"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5372100" y="3257550"/>
+          <a:ext cx="1609725" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="A5A5A5"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="787878"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+            </a:rPr>
+            <a:t>数据库服务器</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3078" name="Rounded Rectangle 6"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5114925" y="514350"/>
+          <a:ext cx="1943100" cy="923925"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="T0" fmla="*/ 0 w 1971675"/>
+            <a:gd name="T1" fmla="*/ 153990 h 923925"/>
+            <a:gd name="T2" fmla="*/ 0 w 1971675"/>
+            <a:gd name="T3" fmla="*/ 153990 h 923925"/>
+            <a:gd name="T4" fmla="*/ 153989 w 1971675"/>
+            <a:gd name="T5" fmla="*/ 0 h 923925"/>
+            <a:gd name="T6" fmla="*/ 1817684 w 1971675"/>
+            <a:gd name="T7" fmla="*/ 0 h 923925"/>
+            <a:gd name="T8" fmla="*/ 1817684 w 1971675"/>
+            <a:gd name="T9" fmla="*/ 0 h 923925"/>
+            <a:gd name="T10" fmla="*/ 1971674 w 1971675"/>
+            <a:gd name="T11" fmla="*/ 153990 h 923925"/>
+            <a:gd name="T12" fmla="*/ 1971675 w 1971675"/>
+            <a:gd name="T13" fmla="*/ 769934 h 923925"/>
+            <a:gd name="T14" fmla="*/ 1971675 w 1971675"/>
+            <a:gd name="T15" fmla="*/ 769934 h 923925"/>
+            <a:gd name="T16" fmla="*/ 1817685 w 1971675"/>
+            <a:gd name="T17" fmla="*/ 923924 h 923925"/>
+            <a:gd name="T18" fmla="*/ 153990 w 1971675"/>
+            <a:gd name="T19" fmla="*/ 923925 h 923925"/>
+            <a:gd name="T20" fmla="*/ 153990 w 1971675"/>
+            <a:gd name="T21" fmla="*/ 923925 h 923925"/>
+            <a:gd name="T22" fmla="*/ 0 w 1971675"/>
+            <a:gd name="T23" fmla="*/ 769935 h 923925"/>
+            <a:gd name="T24" fmla="*/ 45102 w 1971675"/>
+            <a:gd name="T25" fmla="*/ 45102 h 923925"/>
+            <a:gd name="T26" fmla="*/ 1926572 w 1971675"/>
+            <a:gd name="T27" fmla="*/ 878822 h 923925"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="T0" y="T1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="T2" y="T3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="T4" y="T5"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="T6" y="T7"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="T8" y="T9"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="T10" y="T11"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="T12" y="T13"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="T14" y="T15"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="T16" y="T17"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="T18" y="T19"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="T20" y="T21"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="T22" y="T23"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="T24" t="T25" r="T26" b="T27"/>
+          <a:pathLst>
+            <a:path w="1971675" h="923925">
+              <a:moveTo>
+                <a:pt x="0" y="153990"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="153990"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="0" y="68943"/>
+                <a:pt x="68943" y="0"/>
+                <a:pt x="153989" y="0"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="1817684" y="0"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="1902730" y="0"/>
+                <a:pt x="1971674" y="68943"/>
+                <a:pt x="1971674" y="153990"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="1971675" y="769934"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="1971675" y="854980"/>
+                <a:pt x="1902731" y="923924"/>
+                <a:pt x="1817685" y="923924"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="153990" y="923925"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="68943" y="923925"/>
+                <a:pt x="0" y="854981"/>
+                <a:pt x="0" y="769935"/>
+              </a:cubicBezTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="BA8C00"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="18288" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+            </a:rPr>
+            <a:t>官方网站服务器</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="宋体"/>
+            <a:cs typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+            </a:rPr>
+            <a:t>提供升级</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="宋体"/>
+            <a:cs typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+            </a:rPr>
+            <a:t>下载</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="宋体"/>
+            <a:cs typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+            </a:rPr>
+            <a:t>说明</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3079" name="Rounded Rectangle 7"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5181600" y="1895475"/>
+          <a:ext cx="1943100" cy="923925"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="T0" fmla="*/ 0 w 1971675"/>
+            <a:gd name="T1" fmla="*/ 153990 h 923925"/>
+            <a:gd name="T2" fmla="*/ 0 w 1971675"/>
+            <a:gd name="T3" fmla="*/ 153990 h 923925"/>
+            <a:gd name="T4" fmla="*/ 153989 w 1971675"/>
+            <a:gd name="T5" fmla="*/ 0 h 923925"/>
+            <a:gd name="T6" fmla="*/ 1817684 w 1971675"/>
+            <a:gd name="T7" fmla="*/ 0 h 923925"/>
+            <a:gd name="T8" fmla="*/ 1817684 w 1971675"/>
+            <a:gd name="T9" fmla="*/ 0 h 923925"/>
+            <a:gd name="T10" fmla="*/ 1971674 w 1971675"/>
+            <a:gd name="T11" fmla="*/ 153990 h 923925"/>
+            <a:gd name="T12" fmla="*/ 1971675 w 1971675"/>
+            <a:gd name="T13" fmla="*/ 769934 h 923925"/>
+            <a:gd name="T14" fmla="*/ 1971675 w 1971675"/>
+            <a:gd name="T15" fmla="*/ 769934 h 923925"/>
+            <a:gd name="T16" fmla="*/ 1817685 w 1971675"/>
+            <a:gd name="T17" fmla="*/ 923924 h 923925"/>
+            <a:gd name="T18" fmla="*/ 153990 w 1971675"/>
+            <a:gd name="T19" fmla="*/ 923925 h 923925"/>
+            <a:gd name="T20" fmla="*/ 153990 w 1971675"/>
+            <a:gd name="T21" fmla="*/ 923925 h 923925"/>
+            <a:gd name="T22" fmla="*/ 0 w 1971675"/>
+            <a:gd name="T23" fmla="*/ 769935 h 923925"/>
+            <a:gd name="T24" fmla="*/ 45102 w 1971675"/>
+            <a:gd name="T25" fmla="*/ 45102 h 923925"/>
+            <a:gd name="T26" fmla="*/ 1926572 w 1971675"/>
+            <a:gd name="T27" fmla="*/ 878822 h 923925"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="T0" y="T1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="T2" y="T3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="T4" y="T5"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="T6" y="T7"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="T8" y="T9"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="T10" y="T11"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="T12" y="T13"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="T14" y="T15"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="T16" y="T17"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="T18" y="T19"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="T20" y="T21"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="T22" y="T23"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="T24" t="T25" r="T26" b="T27"/>
+          <a:pathLst>
+            <a:path w="1971675" h="923925">
+              <a:moveTo>
+                <a:pt x="0" y="153990"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="153990"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="0" y="68943"/>
+                <a:pt x="68943" y="0"/>
+                <a:pt x="153989" y="0"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="1817684" y="0"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="1902730" y="0"/>
+                <a:pt x="1971674" y="68943"/>
+                <a:pt x="1971674" y="153990"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="1971675" y="769934"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="1971675" y="854980"/>
+                <a:pt x="1902731" y="923924"/>
+                <a:pt x="1817685" y="923924"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="153990" y="923925"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="68943" y="923925"/>
+                <a:pt x="0" y="854981"/>
+                <a:pt x="0" y="769935"/>
+              </a:cubicBezTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="BA8C00"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="18288" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+            </a:rPr>
+            <a:t>信息服务器提供</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="宋体"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:t>C/S</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:t>交互</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:latin typeface="宋体"/>
+            <a:ea typeface="宋体"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1363,6 +2093,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -1395,15 +2126,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
@@ -1426,25 +2156,24 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="20.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="34.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" customWidth="1"/>
     <col min="4" max="4" width="30" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1459,7 +2188,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:4">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -1467,27 +2196,27 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="3:3">
+    <row r="3" spans="2:4">
       <c r="C3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="3:3">
+    <row r="4" spans="2:4">
       <c r="C4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="3:3">
+    <row r="5" spans="2:4">
       <c r="C5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="3:3">
+    <row r="6" spans="2:4">
       <c r="C6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="2:4">
       <c r="B7" t="s">
         <v>13</v>
       </c>
@@ -1495,22 +2224,22 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="3:3">
+    <row r="8" spans="2:4">
       <c r="C8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="3:3">
+    <row r="9" spans="2:4">
       <c r="C9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="3:3">
+    <row r="10" spans="2:4">
       <c r="C10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" ht="105" spans="2:4">
+    <row r="11" spans="2:4" ht="105">
       <c r="B11" t="s">
         <v>18</v>
       </c>
@@ -1521,7 +2250,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" ht="30" spans="3:4">
+    <row r="12" spans="2:4" ht="30">
       <c r="C12" t="s">
         <v>21</v>
       </c>
@@ -1530,15 +2259,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1547,149 +2275,146 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="2:2">
+    <row r="2" spans="1:2">
       <c r="B2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="1:2">
       <c r="B5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="1:2">
       <c r="B6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="1:2">
       <c r="B9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
+    <row r="10" spans="1:2">
       <c r="B10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="2:2">
+    <row r="13" spans="1:2">
       <c r="B13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
+    <row r="14" spans="1:2">
       <c r="B14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="1:2">
       <c r="B17" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="1:2">
       <c r="B20" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23" spans="1:2">
       <c r="B23" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="2:2">
+    <row r="26" spans="1:2">
       <c r="B26" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
+    <row r="29" spans="1:2">
       <c r="B29" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="B1:I33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:I37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:2">
+    <row r="1" spans="2:9">
       <c r="B1" s="3" t="s">
         <v>44</v>
       </c>
@@ -1708,198 +2433,221 @@
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="2:9">
       <c r="B5" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="3:9">
+    <row r="6" spans="2:9">
       <c r="C6" s="3" t="s">
         <v>48</v>
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="3:9">
+    <row r="7" spans="2:9">
       <c r="C7" s="3" t="s">
         <v>49</v>
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="3:9">
+    <row r="8" spans="2:9">
       <c r="C8" s="3" t="s">
         <v>50</v>
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="3:9">
+    <row r="9" spans="2:9">
       <c r="C9" s="3" t="s">
         <v>51</v>
       </c>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="3:9">
+    <row r="10" spans="2:9">
       <c r="C10" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="3:9">
+    <row r="11" spans="2:9">
       <c r="C11" s="3" t="s">
         <v>53</v>
       </c>
       <c r="I11" s="6"/>
     </row>
-    <row r="13" spans="2:2">
-      <c r="B13" t="s">
+    <row r="12" spans="2:9">
+      <c r="C12" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="I12" s="12"/>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="3:9">
-      <c r="C14" t="s">
+    <row r="15" spans="2:9">
+      <c r="C15" t="s">
         <v>55</v>
       </c>
-      <c r="I14" s="6"/>
-    </row>
-    <row r="15" spans="3:9">
-      <c r="C15" t="s">
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="C16" t="s">
         <v>56</v>
       </c>
-      <c r="I15" s="6"/>
-    </row>
-    <row r="16" spans="3:9">
-      <c r="C16" t="s">
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="C17" t="s">
         <v>57</v>
       </c>
-      <c r="I16" s="6"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" t="s">
+      <c r="C18" t="s">
+        <v>130</v>
+      </c>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="C19" t="s">
+        <v>133</v>
+      </c>
+      <c r="I19" s="12"/>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="C20" t="s">
+        <v>134</v>
+      </c>
+      <c r="I20" s="12"/>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" t="s">
         <v>58</v>
       </c>
-      <c r="I18" s="7"/>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" t="s">
+      <c r="I22" s="7"/>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="3:9">
-      <c r="C21" t="s">
+    <row r="25" spans="2:9">
+      <c r="C25" t="s">
         <v>60</v>
       </c>
-      <c r="I21" s="8"/>
-    </row>
-    <row r="22" spans="3:9">
-      <c r="C22" t="s">
+      <c r="I25" s="8"/>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="C26" t="s">
         <v>61</v>
       </c>
-      <c r="I22" s="8"/>
-    </row>
-    <row r="23" spans="3:9">
-      <c r="C23" t="s">
+      <c r="I26" s="8"/>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="C27" t="s">
         <v>62</v>
       </c>
-      <c r="I23" s="8"/>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" t="s">
+      <c r="I27" s="8"/>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="3:9">
-      <c r="C26" t="s">
+    <row r="30" spans="2:9">
+      <c r="C30" t="s">
         <v>64</v>
       </c>
-      <c r="I26" s="8"/>
-    </row>
-    <row r="27" spans="3:9">
-      <c r="C27" t="s">
+      <c r="I30" s="8"/>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="C31" t="s">
         <v>65</v>
       </c>
-      <c r="I27" s="8"/>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" t="s">
+      <c r="I31" s="8"/>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="3:9">
-      <c r="C30" t="s">
+    <row r="34" spans="2:9">
+      <c r="C34" t="s">
         <v>67</v>
       </c>
-      <c r="I30" s="7"/>
-    </row>
-    <row r="31" spans="3:9">
-      <c r="C31" t="s">
+      <c r="I34" s="7"/>
+    </row>
+    <row r="35" spans="2:9">
+      <c r="C35" t="s">
         <v>68</v>
       </c>
-      <c r="I31" s="7"/>
-    </row>
-    <row r="32" spans="3:9">
-      <c r="C32" t="s">
+      <c r="I35" s="7"/>
+    </row>
+    <row r="36" spans="2:9">
+      <c r="C36" t="s">
         <v>69</v>
       </c>
-      <c r="I32" s="7"/>
-    </row>
-    <row r="33" spans="3:3">
-      <c r="C33" s="3" t="s">
+      <c r="I36" s="7"/>
+    </row>
+    <row r="37" spans="2:9">
+      <c r="C37" s="3" t="s">
         <v>70</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="2:2">
+    <row r="2" spans="1:4">
       <c r="B2" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="1:4">
       <c r="B4" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="1:4">
       <c r="B6" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="1:4">
       <c r="B8" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
+    <row r="10" spans="1:4">
       <c r="B10" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="2:2">
+    <row r="12" spans="1:4">
       <c r="B12" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="2:4">
+    <row r="13" spans="1:4">
       <c r="B13" s="2" t="s">
         <v>78</v>
       </c>
@@ -1918,7 +2666,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:4">
       <c r="A15" s="4" t="s">
         <v>80</v>
       </c>
@@ -1926,13 +2674,13 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:4">
       <c r="A16" s="5"/>
       <c r="B16" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:4">
       <c r="A17" s="5"/>
       <c r="B17" s="2" t="s">
         <v>85</v>
@@ -1947,25 +2695,25 @@
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:4">
       <c r="A19" s="5"/>
       <c r="B19" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:4">
       <c r="A20" s="5"/>
       <c r="B20" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:4">
       <c r="A21" s="5"/>
       <c r="B21" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:4">
       <c r="A22" s="4" t="s">
         <v>80</v>
       </c>
@@ -1973,7 +2721,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:4">
       <c r="A23" s="4" t="s">
         <v>80</v>
       </c>
@@ -1981,7 +2729,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:4">
       <c r="A24" s="4" t="s">
         <v>80</v>
       </c>
@@ -1990,29 +2738,28 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:2">
+    <row r="1" spans="2:3">
       <c r="B1" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:3">
       <c r="B2" s="2" t="s">
         <v>94</v>
       </c>
@@ -2027,108 +2774,108 @@
       <c r="B4" s="2"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="2:3">
       <c r="B6" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="3:3">
+    <row r="7" spans="2:3">
       <c r="C7" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="3:3">
+    <row r="8" spans="2:3">
       <c r="C8" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="3:3">
+    <row r="9" spans="2:3">
       <c r="C9" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="3:3">
+    <row r="10" spans="2:3">
       <c r="C10" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="3:3">
+    <row r="11" spans="2:3">
       <c r="C11" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="3:3">
+    <row r="12" spans="2:3">
       <c r="C12" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="3:3">
+    <row r="13" spans="2:3">
       <c r="C13" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="3:3">
+    <row r="14" spans="2:3">
       <c r="C14" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="3:3">
+    <row r="15" spans="2:3">
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="3:3">
+    <row r="16" spans="2:3">
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="1:4">
       <c r="B17" s="3" t="s">
         <v>105</v>
       </c>
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="1:4">
       <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="1:4">
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="1:4">
       <c r="B21" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="3:3">
+    <row r="22" spans="1:4">
       <c r="C22" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
+    <row r="24" spans="1:4">
       <c r="B24" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="1:4">
       <c r="B25" s="3"/>
       <c r="C25" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="1:4">
       <c r="B26" s="3"/>
       <c r="C26" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="2:2">
+    <row r="28" spans="1:4">
       <c r="B28" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:4">
       <c r="A29" s="4" t="s">
         <v>80</v>
       </c>
@@ -2145,13 +2892,13 @@
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:4">
       <c r="A31" s="5"/>
       <c r="B31" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:4">
       <c r="A32" s="5"/>
       <c r="B32" s="2" t="s">
         <v>118</v>
@@ -2180,17 +2927,17 @@
       </c>
       <c r="D35" s="2"/>
     </row>
-    <row r="37" spans="2:2">
+    <row r="37" spans="1:4">
       <c r="B37" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="2:2">
+    <row r="38" spans="1:4">
       <c r="B38" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="39" spans="2:4">
+    <row r="39" spans="1:4">
       <c r="B39" s="2" t="s">
         <v>123</v>
       </c>
@@ -2198,7 +2945,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="40" spans="2:4">
+    <row r="40" spans="1:4">
       <c r="B40" s="2" t="s">
         <v>125</v>
       </c>
@@ -2207,80 +2954,79 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" customFormat="1" spans="2:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" customFormat="1" spans="2:2">
+    <row r="2" spans="1:4">
       <c r="B2" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="3" customFormat="1" spans="2:3">
+    <row r="3" spans="1:4">
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="4" customFormat="1" spans="2:3">
+    <row r="4" spans="1:4">
       <c r="B4" s="2"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="6" customFormat="1" spans="2:2">
+    <row r="6" spans="1:4">
       <c r="B6" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="7" customFormat="1" spans="3:3">
+    <row r="7" spans="1:4">
       <c r="C7" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="8" customFormat="1" spans="3:3">
+    <row r="8" spans="1:4">
       <c r="C8" s="3"/>
     </row>
-    <row r="9" customFormat="1" spans="2:3">
+    <row r="9" spans="1:4">
       <c r="B9" s="3" t="s">
         <v>105</v>
       </c>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" customFormat="1" spans="2:3">
+    <row r="10" spans="1:4">
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="11" customFormat="1" spans="2:3">
+    <row r="11" spans="1:4">
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="13" customFormat="1" spans="2:2">
+    <row r="13" spans="1:4">
       <c r="B13" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" spans="1:2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="4" t="s">
         <v>80</v>
       </c>
@@ -2288,70 +3034,66 @@
         <v>114</v>
       </c>
     </row>
-    <row r="15" customFormat="1" spans="1:4">
+    <row r="15" spans="1:4">
       <c r="A15" s="5"/>
       <c r="B15" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C15"/>
       <c r="D15" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="16" customFormat="1" spans="1:2">
+    <row r="16" spans="1:4">
       <c r="A16" s="5"/>
       <c r="B16" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="17" customFormat="1" spans="1:2">
+    <row r="17" spans="1:4">
       <c r="A17" s="5"/>
       <c r="B17" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="18" customFormat="1" spans="1:4">
+    <row r="18" spans="1:4">
       <c r="A18" s="4" t="s">
         <v>80</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C18"/>
       <c r="D18" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="20" customFormat="1" spans="2:2">
+    <row r="20" spans="1:4">
       <c r="B20" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="21" customFormat="1" spans="2:2">
+    <row r="21" spans="1:4">
       <c r="B21" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="22" customFormat="1" spans="2:4">
+    <row r="22" spans="1:4">
       <c r="B22" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C22"/>
       <c r="D22" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="23" customFormat="1" spans="2:4">
+    <row r="23" spans="1:4">
       <c r="B23" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C23"/>
       <c r="D23" s="2" t="s">
         <v>126</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/document/基本方案及设计.xlsx
+++ b/document/基本方案及设计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20700" windowHeight="13635" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="星火概述" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="139">
   <si>
     <t>概述：</t>
   </si>
@@ -942,6 +942,18 @@
   </si>
   <si>
     <t>f. 提供实时位置</t>
+  </si>
+  <si>
+    <t>Node.js 插件</t>
+  </si>
+  <si>
+    <t>async</t>
+  </si>
+  <si>
+    <t>mysql</t>
+  </si>
+  <si>
+    <t>Restify</t>
   </si>
 </sst>
 </file>
@@ -2284,10 +2296,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2395,6 +2407,26 @@
     <row r="29" spans="1:2">
       <c r="B29" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="B32" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2408,7 +2440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
@@ -2607,7 +2639,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>

--- a/document/基本方案及设计.xlsx
+++ b/document/基本方案及设计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="星火概述" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="140">
   <si>
     <t>概述：</t>
   </si>
@@ -955,12 +955,15 @@
   <si>
     <t>Restify</t>
   </si>
+  <si>
+    <t>7. 特定时间段快速查找附近早餐， 午餐 ， 晚餐以及夜宵摊位 （新增）</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -994,6 +997,13 @@
       <b/>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
@@ -1045,7 +1055,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1069,6 +1079,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2298,7 +2309,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
@@ -2438,10 +2449,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I37"/>
+  <dimension ref="B1:I39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2627,9 +2638,14 @@
         <v>70</v>
       </c>
     </row>
+    <row r="39" spans="2:9">
+      <c r="B39" s="13" t="s">
+        <v>139</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
